--- a/src/main/resources/baseFiles/excel/LastCheckSheet.xlsx
+++ b/src/main/resources/baseFiles/excel/LastCheckSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14440"/>
+    <workbookView windowWidth="24680" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,11 +679,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1228,7 +1225,7 @@
   <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J252"/>
+      <selection activeCell="B2" sqref="A2:J671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1281,80 +1278,44 @@
       <c r="J2" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="1"/>
@@ -1377,16 +1338,16 @@
       <c r="J59" s="1"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1"/>
@@ -1401,7 +1362,7 @@
       <c r="J68" s="1"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
@@ -1409,40 +1370,40 @@
       <c r="H77" s="1"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="1"/>
@@ -1457,116 +1418,116 @@
       <c r="H101" s="1"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
     </row>
     <row r="145" spans="7:8">
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="1"/>
@@ -1600,18 +1561,6 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-    </row>
     <row r="219" spans="1:10">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
@@ -1657,40 +1606,40 @@
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="1"/>
@@ -1705,40 +1654,28 @@
       <c r="J247" s="1"/>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:J263">

--- a/src/main/resources/baseFiles/excel/LastCheckSheet.xlsx
+++ b/src/main/resources/baseFiles/excel/LastCheckSheet.xlsx
@@ -5178,4010 +5178,3730 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="10" width="9" style="1"/>
+    <col min="1" max="10" style="1" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s" s="1">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E28" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s" s="1">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="F33" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F34" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="G34" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="F35" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="G37" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="G38" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="F39" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="G39" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F40" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="G40" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="F41" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="D42" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F42" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="F43" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="G43" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="G45" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="D46" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="G46" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s" s="1">
+        <v>271</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="D47" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F47" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="H47" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="E48" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F48" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="D49" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="E49" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="D50" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s" s="1">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="H50" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E51" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="F51" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="G51" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="D52" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E52" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F52" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="G52" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>307</v>
+      </c>
+      <c r="D53" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="G53" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="H53" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="D55" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E55" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="F55" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s" s="1">
+        <v>322</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="D56" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E56" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="F56" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s" s="1">
+        <v>327</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="D57" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E57" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F57" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="G57" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="D58" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E58" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="F58" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="G58" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="D59" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E59" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="F59" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="G59" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="D60" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E60" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="G60" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="D61" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E61" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="F61" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="G61" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="H61" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="D62" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E62" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="F62" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="G62" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="H62" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="D63" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E63" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="F63" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="G63" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E64" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F64" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="G64" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>374</v>
+      </c>
+      <c r="D65" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E65" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="G65" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s" s="1">
+        <v>376</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="D66" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="E66" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="F66" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="G66" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="D67" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="E67" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F67" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="G67" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="D68" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="E68" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="G68" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="D69" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F69" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="G69" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="H69" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="D70" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="E70" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F70" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="G70" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="D71" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="E71" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="F71" t="s" s="1">
+        <v>410</v>
+      </c>
+      <c r="G71" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="D73" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E73" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="F73" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="G73" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s" s="1">
+        <v>424</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="D74" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E74" t="s" s="1">
+        <v>427</v>
+      </c>
+      <c r="F74" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="G74" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="D75" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E75" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F75" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="G75" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="D76" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E76" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="G76" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>441</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="D77" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="E77" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="G77" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="D79" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E79" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F79" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="G79" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s" s="1">
+        <v>455</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s" s="1">
+        <v>456</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>457</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>458</v>
+      </c>
+      <c r="D80" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E80" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="F80" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="G80" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s" s="1">
+        <v>461</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>462</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>463</v>
+      </c>
+      <c r="D81" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="F81" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="G81" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="D82" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="F82" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="G82" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="D83" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E83" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="F83" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="G83" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="D84" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F84" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="G84" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>482</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="D85" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="G85" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s" s="1">
+        <v>485</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="D86" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E86" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F86" t="s" s="1">
+        <v>489</v>
+      </c>
+      <c r="G86" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s" s="1">
+        <v>490</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s" s="1">
+        <v>491</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="D87" t="s" s="1">
+        <v>453</v>
+      </c>
+      <c r="E87" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="F87" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="G87" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>496</v>
+      </c>
+      <c r="D89" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E89" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="F89" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="G89" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="D90" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="G90" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s" s="1">
+        <v>506</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>507</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="D91" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="G91" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>513</v>
+      </c>
+      <c r="D92" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="G92" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s" s="1">
+        <v>515</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>517</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>518</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E93" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="F93" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="G93" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="H93" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>524</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>525</v>
+      </c>
+      <c r="D94" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E94" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F94" t="s" s="1">
+        <v>526</v>
+      </c>
+      <c r="G94" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s" s="1">
+        <v>528</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>530</v>
+      </c>
+      <c r="D95" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E95" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F95" t="s" s="1">
+        <v>531</v>
+      </c>
+      <c r="G95" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s" s="1">
+        <v>532</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="F96" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="G96" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s" s="1">
+        <v>538</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>540</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>541</v>
+      </c>
+      <c r="D97" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E97" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F97" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="G97" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>546</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="F98" t="s" s="1">
+        <v>548</v>
+      </c>
+      <c r="G98" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="H98" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="D99" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="E99" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F99" t="s" s="1">
+        <v>553</v>
+      </c>
+      <c r="G99" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="H99" t="s" s="1">
+        <v>554</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>556</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>557</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F100" t="s" s="1">
+        <v>559</v>
+      </c>
+      <c r="G100" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>562</v>
+      </c>
+      <c r="D101" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="E101" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F101" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="G101" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s" s="1">
+        <v>564</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>567</v>
+      </c>
+      <c r="D102" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="E102" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s" s="1">
+        <v>568</v>
+      </c>
+      <c r="G102" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="C103" s="1">
+        <v>81662081500</v>
+      </c>
+      <c r="D103" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F103" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="G103" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s" s="1">
+        <v>573</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F104" t="s" s="1">
+        <v>576</v>
+      </c>
+      <c r="G104" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="D105" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="E105" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F105" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="G105" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s" s="1">
+        <v>584</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="D106" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="E106" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F106" t="s" s="1">
+        <v>587</v>
+      </c>
+      <c r="G106" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s" s="1">
+        <v>588</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="D107" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>592</v>
+      </c>
+      <c r="F107" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="G107" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H107" t="s" s="1">
+        <v>594</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>596</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="E108" t="s" s="1">
+        <v>597</v>
+      </c>
+      <c r="F108" t="s" s="1">
+        <v>598</v>
+      </c>
+      <c r="G108" t="s" s="1">
+        <v>599</v>
+      </c>
+      <c r="H108" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="F109" t="s" s="1">
+        <v>603</v>
+      </c>
+      <c r="G109" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s" s="1">
+        <v>594</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="D111" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="E111" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="G111" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s" s="1">
+        <v>613</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="D113" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="E113" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="F113" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="G113" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="D114" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>628</v>
+      </c>
+      <c r="F114" t="s" s="1">
+        <v>629</v>
+      </c>
+      <c r="G114" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s" s="1">
+        <v>630</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s" s="1">
+        <v>631</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>632</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>633</v>
+      </c>
+      <c r="D115" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="E115" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="F115" t="s" s="1">
+        <v>634</v>
+      </c>
+      <c r="G115" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>643</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="D117" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="E117" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="F117" t="s" s="1">
+        <v>646</v>
+      </c>
+      <c r="G117" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>650</v>
+      </c>
+      <c r="D118" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="E118" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="F118" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="G118" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s" s="1">
+        <v>653</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>654</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="D119" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="E119" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="F119" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="G119" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="H119" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s" s="1">
+        <v>659</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>661</v>
+      </c>
+      <c r="D120" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="E120" t="s" s="1">
+        <v>662</v>
+      </c>
+      <c r="F120" t="s" s="1">
+        <v>663</v>
+      </c>
+      <c r="G120" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="D121" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="E121" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="F121" t="s" s="1">
+        <v>668</v>
+      </c>
+      <c r="G121" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H121" t="s" s="1">
+        <v>669</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="D122" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="E122" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="F122" t="s" s="1">
+        <v>674</v>
+      </c>
+      <c r="G122" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s" s="1">
+        <v>675</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s" s="1">
+        <v>676</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>677</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>678</v>
+      </c>
+      <c r="D123" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="E123" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="F123" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="G123" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="H123" t="s" s="1">
+        <v>681</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>683</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>684</v>
+      </c>
+      <c r="D124" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="E124" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F124" t="s" s="1">
+        <v>685</v>
+      </c>
+      <c r="G124" t="s" s="1">
+        <v>686</v>
+      </c>
+      <c r="H124" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s" s="1">
+        <v>688</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>689</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>690</v>
+      </c>
+      <c r="D125" t="s" s="1">
+        <v>691</v>
+      </c>
+      <c r="E125" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="F125" t="s" s="1">
+        <v>692</v>
+      </c>
+      <c r="G125" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="H125" t="s" s="1">
+        <v>693</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s" s="1">
+        <v>694</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>695</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>696</v>
+      </c>
+      <c r="D126" t="s" s="1">
+        <v>691</v>
+      </c>
+      <c r="E126" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="G126" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s" s="1">
+        <v>699</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>700</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="D127" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="E127" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="F127" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="G127" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s" s="1">
+        <v>705</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>706</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>707</v>
+      </c>
+      <c r="D128" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="E128" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="F128" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="G128" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s" s="1">
+        <v>710</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s" s="1">
+        <v>711</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>712</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>713</v>
+      </c>
+      <c r="D129" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="E129" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="F129" t="s" s="1">
+        <v>714</v>
+      </c>
+      <c r="G129" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="H129" t="s" s="1">
+        <v>715</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s" s="1">
+        <v>716</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>717</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>718</v>
+      </c>
+      <c r="D130" t="s" s="1">
+        <v>719</v>
+      </c>
+      <c r="E130" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s" s="1">
+        <v>720</v>
+      </c>
+      <c r="G130" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="H130" t="s" s="1">
+        <v>721</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s" s="1">
+        <v>722</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>723</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>724</v>
+      </c>
+      <c r="D131" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="E131" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="F131" t="s" s="1">
+        <v>726</v>
+      </c>
+      <c r="G131" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s" s="1">
+        <v>727</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s" s="1">
+        <v>734</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>735</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>736</v>
+      </c>
+      <c r="D133" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="E133" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="F133" t="s" s="1">
+        <v>738</v>
+      </c>
+      <c r="G133" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s" s="1">
+        <v>739</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s" s="1">
+        <v>740</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>742</v>
+      </c>
+      <c r="D134" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="E134" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="F134" t="s" s="1">
+        <v>743</v>
+      </c>
+      <c r="G134" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s" s="1">
+        <v>744</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s" s="1">
+        <v>745</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>746</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>747</v>
+      </c>
+      <c r="D135" t="s" s="1">
+        <v>748</v>
+      </c>
+      <c r="E135" t="s" s="1">
+        <v>749</v>
+      </c>
+      <c r="F135" t="s" s="1">
+        <v>750</v>
+      </c>
+      <c r="G135" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s" s="1">
+        <v>751</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s" s="1">
+        <v>752</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>753</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>754</v>
+      </c>
+      <c r="D136" t="s" s="1">
+        <v>755</v>
+      </c>
+      <c r="E136" t="s" s="1">
+        <v>756</v>
+      </c>
+      <c r="F136" t="s" s="1">
+        <v>757</v>
+      </c>
+      <c r="G136" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s" s="1">
+        <v>758</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>760</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>761</v>
+      </c>
+      <c r="D137" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E137" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="F137" t="s" s="1">
+        <v>763</v>
+      </c>
+      <c r="G137" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s" s="1">
+        <v>764</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s" s="1">
+        <v>765</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>766</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>767</v>
+      </c>
+      <c r="D138" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E138" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="F138" t="s" s="1">
+        <v>768</v>
+      </c>
+      <c r="G138" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s" s="1">
+        <v>769</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>770</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>771</v>
+      </c>
+      <c r="D139" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E139" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F139" t="s" s="1">
+        <v>772</v>
+      </c>
+      <c r="G139" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s" s="1">
+        <v>773</v>
+      </c>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s" s="1">
+        <v>774</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>775</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>776</v>
+      </c>
+      <c r="D140" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E140" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F140" t="s" s="1">
+        <v>777</v>
+      </c>
+      <c r="G140" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s" s="1">
+        <v>778</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s" s="1">
+        <v>779</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>780</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>781</v>
+      </c>
+      <c r="D141" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E141" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s" s="1">
+        <v>782</v>
+      </c>
+      <c r="G141" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s" s="1">
+        <v>783</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s" s="1">
+        <v>784</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>785</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>786</v>
+      </c>
+      <c r="D142" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E142" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F142" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="G142" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s" s="1">
+        <v>788</v>
+      </c>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s" s="1">
+        <v>789</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>790</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>791</v>
+      </c>
+      <c r="D143" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="E143" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s" s="1">
+        <v>792</v>
+      </c>
+      <c r="G143" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>182</v>
-      </c>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>230</v>
-      </c>
-      <c r="F39" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s">
-        <v>247</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>254</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>259</v>
-      </c>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B45" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" t="s">
-        <v>264</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>265</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>266</v>
-      </c>
-      <c r="B46" t="s">
-        <v>267</v>
-      </c>
-      <c r="C46" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" t="s">
-        <v>270</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" t="s">
-        <v>263</v>
-      </c>
-      <c r="E47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" t="s">
-        <v>274</v>
-      </c>
-      <c r="G47" t="s">
-        <v>275</v>
-      </c>
-      <c r="H47" t="s">
-        <v>276</v>
-      </c>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B48" t="s">
-        <v>278</v>
-      </c>
-      <c r="C48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>282</v>
-      </c>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" t="s">
-        <v>280</v>
-      </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" t="s">
-        <v>286</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>287</v>
-      </c>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" t="s">
-        <v>292</v>
-      </c>
-      <c r="H50" t="s">
-        <v>293</v>
-      </c>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" t="s">
-        <v>298</v>
-      </c>
-      <c r="F51" t="s">
-        <v>299</v>
-      </c>
-      <c r="G51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" t="s">
-        <v>300</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" t="s">
-        <v>297</v>
-      </c>
-      <c r="E52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" t="s">
-        <v>304</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" t="s">
-        <v>297</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" t="s">
-        <v>309</v>
-      </c>
-      <c r="H53" t="s">
-        <v>310</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" t="s">
-        <v>312</v>
-      </c>
-      <c r="C54" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" t="s">
-        <v>297</v>
-      </c>
-      <c r="E54" t="s">
-        <v>314</v>
-      </c>
-      <c r="F54" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>282</v>
-      </c>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>316</v>
-      </c>
-      <c r="B55" t="s">
-        <v>317</v>
-      </c>
-      <c r="C55" t="s">
-        <v>318</v>
-      </c>
-      <c r="D55" t="s">
-        <v>297</v>
-      </c>
-      <c r="E55" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>321</v>
-      </c>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>322</v>
-      </c>
-      <c r="B56" t="s">
-        <v>323</v>
-      </c>
-      <c r="C56" t="s">
-        <v>324</v>
-      </c>
-      <c r="D56" t="s">
-        <v>297</v>
-      </c>
-      <c r="E56" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" t="s">
-        <v>326</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>327</v>
-      </c>
-      <c r="I56"/>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" t="s">
-        <v>297</v>
-      </c>
-      <c r="E57" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" t="s">
-        <v>331</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>332</v>
-      </c>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>333</v>
-      </c>
-      <c r="B58" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" t="s">
-        <v>335</v>
-      </c>
-      <c r="D58" t="s">
-        <v>297</v>
-      </c>
-      <c r="E58" t="s">
-        <v>336</v>
-      </c>
-      <c r="F58" t="s">
-        <v>337</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>338</v>
-      </c>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" t="s">
-        <v>297</v>
-      </c>
-      <c r="E59" t="s">
-        <v>342</v>
-      </c>
-      <c r="F59" t="s">
-        <v>343</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>344</v>
-      </c>
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" t="s">
-        <v>346</v>
-      </c>
-      <c r="C60" t="s">
-        <v>347</v>
-      </c>
-      <c r="D60" t="s">
-        <v>348</v>
-      </c>
-      <c r="E60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" t="s">
-        <v>349</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>350</v>
-      </c>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>351</v>
-      </c>
-      <c r="B61" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" t="s">
-        <v>353</v>
-      </c>
-      <c r="D61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E61" t="s">
-        <v>354</v>
-      </c>
-      <c r="F61" t="s">
-        <v>355</v>
-      </c>
-      <c r="G61" t="s">
-        <v>292</v>
-      </c>
-      <c r="H61" t="s">
-        <v>182</v>
-      </c>
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>356</v>
-      </c>
-      <c r="B62" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" t="s">
-        <v>358</v>
-      </c>
-      <c r="D62" t="s">
-        <v>348</v>
-      </c>
-      <c r="E62" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" t="s">
-        <v>360</v>
-      </c>
-      <c r="G62" t="s">
-        <v>275</v>
-      </c>
-      <c r="H62" t="s">
-        <v>361</v>
-      </c>
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B63" t="s">
-        <v>363</v>
-      </c>
-      <c r="C63" t="s">
-        <v>364</v>
-      </c>
-      <c r="D63" t="s">
-        <v>348</v>
-      </c>
-      <c r="E63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F63" t="s">
-        <v>365</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>366</v>
-      </c>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>367</v>
-      </c>
-      <c r="B64" t="s">
-        <v>368</v>
-      </c>
-      <c r="C64" t="s">
-        <v>369</v>
-      </c>
-      <c r="D64" t="s">
-        <v>348</v>
-      </c>
-      <c r="E64" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" t="s">
-        <v>370</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s">
-        <v>371</v>
-      </c>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>372</v>
-      </c>
-      <c r="B65" t="s">
-        <v>373</v>
-      </c>
-      <c r="C65" t="s">
-        <v>374</v>
-      </c>
-      <c r="D65" t="s">
-        <v>348</v>
-      </c>
-      <c r="E65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" t="s">
-        <v>375</v>
-      </c>
-      <c r="G65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" t="s">
-        <v>376</v>
-      </c>
-      <c r="I65"/>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" t="s">
-        <v>379</v>
-      </c>
-      <c r="D66" t="s">
-        <v>380</v>
-      </c>
-      <c r="E66" t="s">
-        <v>381</v>
-      </c>
-      <c r="F66" t="s">
-        <v>382</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>383</v>
-      </c>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>384</v>
-      </c>
-      <c r="B67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" t="s">
-        <v>386</v>
-      </c>
-      <c r="D67" t="s">
-        <v>380</v>
-      </c>
-      <c r="E67" t="s">
-        <v>236</v>
-      </c>
-      <c r="F67" t="s">
-        <v>387</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s">
-        <v>388</v>
-      </c>
-      <c r="I67"/>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>389</v>
-      </c>
-      <c r="B68" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" t="s">
-        <v>391</v>
-      </c>
-      <c r="D68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" t="s">
-        <v>393</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="s">
-        <v>394</v>
-      </c>
-      <c r="I68"/>
-      <c r="J68"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>395</v>
-      </c>
-      <c r="B69" t="s">
-        <v>396</v>
-      </c>
-      <c r="C69" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" t="s">
-        <v>392</v>
-      </c>
-      <c r="E69" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" t="s">
-        <v>398</v>
-      </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s">
-        <v>399</v>
-      </c>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>400</v>
-      </c>
-      <c r="B70" t="s">
-        <v>401</v>
-      </c>
-      <c r="C70" t="s">
-        <v>402</v>
-      </c>
-      <c r="D70" t="s">
-        <v>392</v>
-      </c>
-      <c r="E70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70" t="s">
-        <v>403</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s">
-        <v>404</v>
-      </c>
-      <c r="I70"/>
-      <c r="J70"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>405</v>
-      </c>
-      <c r="B71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C71" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" t="s">
-        <v>408</v>
-      </c>
-      <c r="E71" t="s">
-        <v>409</v>
-      </c>
-      <c r="F71" t="s">
-        <v>410</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>411</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>412</v>
-      </c>
-      <c r="B72" t="s">
-        <v>413</v>
-      </c>
-      <c r="C72" t="s">
-        <v>414</v>
-      </c>
-      <c r="D72" t="s">
-        <v>408</v>
-      </c>
-      <c r="E72" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" t="s">
-        <v>416</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>417</v>
-      </c>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>418</v>
-      </c>
-      <c r="B73" t="s">
-        <v>419</v>
-      </c>
-      <c r="C73" t="s">
-        <v>420</v>
-      </c>
-      <c r="D73" t="s">
-        <v>421</v>
-      </c>
-      <c r="E73" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" t="s">
-        <v>422</v>
-      </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" t="s">
-        <v>423</v>
-      </c>
-      <c r="I73"/>
-      <c r="J73"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>424</v>
-      </c>
-      <c r="B74" t="s">
-        <v>425</v>
-      </c>
-      <c r="C74" t="s">
-        <v>426</v>
-      </c>
-      <c r="D74" t="s">
-        <v>421</v>
-      </c>
-      <c r="E74" t="s">
-        <v>427</v>
-      </c>
-      <c r="F74" t="s">
-        <v>428</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>429</v>
-      </c>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>430</v>
-      </c>
-      <c r="B75" t="s">
-        <v>431</v>
-      </c>
-      <c r="C75" t="s">
-        <v>432</v>
-      </c>
-      <c r="D75" t="s">
-        <v>421</v>
-      </c>
-      <c r="E75" t="s">
-        <v>236</v>
-      </c>
-      <c r="F75" t="s">
-        <v>433</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>434</v>
-      </c>
-      <c r="I75"/>
-      <c r="J75"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>435</v>
-      </c>
-      <c r="B76" t="s">
-        <v>436</v>
-      </c>
-      <c r="C76" t="s">
-        <v>437</v>
-      </c>
-      <c r="D76" t="s">
-        <v>421</v>
-      </c>
-      <c r="E76" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" t="s">
-        <v>438</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>439</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>440</v>
-      </c>
-      <c r="B77" t="s">
-        <v>441</v>
-      </c>
-      <c r="C77" t="s">
-        <v>442</v>
-      </c>
-      <c r="D77" t="s">
-        <v>421</v>
-      </c>
-      <c r="E77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" t="s">
-        <v>443</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s">
-        <v>444</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>445</v>
-      </c>
-      <c r="B78" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" t="s">
-        <v>447</v>
-      </c>
-      <c r="D78" t="s">
-        <v>421</v>
-      </c>
-      <c r="E78" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" t="s">
-        <v>448</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>449</v>
-      </c>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>450</v>
-      </c>
-      <c r="B79" t="s">
-        <v>451</v>
-      </c>
-      <c r="C79" t="s">
-        <v>452</v>
-      </c>
-      <c r="D79" t="s">
-        <v>453</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
-        <v>454</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>455</v>
-      </c>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>456</v>
-      </c>
-      <c r="B80" t="s">
-        <v>457</v>
-      </c>
-      <c r="C80" t="s">
-        <v>458</v>
-      </c>
-      <c r="D80" t="s">
-        <v>453</v>
-      </c>
-      <c r="E80" t="s">
-        <v>359</v>
-      </c>
-      <c r="F80" t="s">
-        <v>459</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="s">
-        <v>460</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>461</v>
-      </c>
-      <c r="B81" t="s">
-        <v>462</v>
-      </c>
-      <c r="C81" t="s">
-        <v>463</v>
-      </c>
-      <c r="D81" t="s">
-        <v>453</v>
-      </c>
-      <c r="E81" t="s">
-        <v>381</v>
-      </c>
-      <c r="F81" t="s">
-        <v>464</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s">
-        <v>465</v>
-      </c>
-      <c r="I81"/>
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>466</v>
-      </c>
-      <c r="B82" t="s">
-        <v>467</v>
-      </c>
-      <c r="C82" t="s">
-        <v>468</v>
-      </c>
-      <c r="D82" t="s">
-        <v>453</v>
-      </c>
-      <c r="E82" t="s">
-        <v>191</v>
-      </c>
-      <c r="F82" t="s">
-        <v>469</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>470</v>
-      </c>
-      <c r="I82"/>
-      <c r="J82"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>471</v>
-      </c>
-      <c r="B83" t="s">
-        <v>472</v>
-      </c>
-      <c r="C83" t="s">
-        <v>473</v>
-      </c>
-      <c r="D83" t="s">
-        <v>453</v>
-      </c>
-      <c r="E83" t="s">
-        <v>381</v>
-      </c>
-      <c r="F83" t="s">
-        <v>474</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s">
-        <v>475</v>
-      </c>
-      <c r="I83"/>
-      <c r="J83"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>476</v>
-      </c>
-      <c r="B84" t="s">
-        <v>477</v>
-      </c>
-      <c r="C84" t="s">
-        <v>478</v>
-      </c>
-      <c r="D84" t="s">
-        <v>453</v>
-      </c>
-      <c r="E84" t="s">
-        <v>236</v>
-      </c>
-      <c r="F84" t="s">
-        <v>479</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s">
-        <v>480</v>
-      </c>
-      <c r="I84"/>
-      <c r="J84"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>481</v>
-      </c>
-      <c r="B85" t="s">
-        <v>482</v>
-      </c>
-      <c r="C85" t="s">
-        <v>483</v>
-      </c>
-      <c r="D85" t="s">
-        <v>453</v>
-      </c>
-      <c r="E85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>484</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>485</v>
-      </c>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>486</v>
-      </c>
-      <c r="B86" t="s">
-        <v>487</v>
-      </c>
-      <c r="C86" t="s">
-        <v>488</v>
-      </c>
-      <c r="D86" t="s">
-        <v>453</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
-        <v>489</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
-        <v>490</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>491</v>
-      </c>
-      <c r="B87" t="s">
-        <v>492</v>
-      </c>
-      <c r="C87" t="s">
-        <v>473</v>
-      </c>
-      <c r="D87" t="s">
-        <v>453</v>
-      </c>
-      <c r="E87" t="s">
-        <v>359</v>
-      </c>
-      <c r="F87" t="s">
-        <v>493</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
-        <v>475</v>
-      </c>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>486</v>
-      </c>
-      <c r="B88" t="s">
-        <v>487</v>
-      </c>
-      <c r="C88" t="s">
-        <v>488</v>
-      </c>
-      <c r="D88" t="s">
-        <v>453</v>
-      </c>
-      <c r="E88" t="s">
-        <v>236</v>
-      </c>
-      <c r="F88" t="s">
-        <v>489</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>490</v>
-      </c>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>494</v>
-      </c>
-      <c r="B89" t="s">
-        <v>495</v>
-      </c>
-      <c r="C89" t="s">
-        <v>496</v>
-      </c>
-      <c r="D89" t="s">
-        <v>497</v>
-      </c>
-      <c r="E89" t="s">
-        <v>498</v>
-      </c>
-      <c r="F89" t="s">
-        <v>499</v>
-      </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" t="s">
-        <v>500</v>
-      </c>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>501</v>
-      </c>
-      <c r="B90" t="s">
-        <v>502</v>
-      </c>
-      <c r="C90" t="s">
-        <v>503</v>
-      </c>
-      <c r="D90" t="s">
-        <v>497</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" t="s">
-        <v>504</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>505</v>
-      </c>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>506</v>
-      </c>
-      <c r="B91" t="s">
-        <v>507</v>
-      </c>
-      <c r="C91" t="s">
-        <v>508</v>
-      </c>
-      <c r="D91" t="s">
-        <v>497</v>
-      </c>
-      <c r="E91" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" t="s">
-        <v>509</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>510</v>
-      </c>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>511</v>
-      </c>
-      <c r="B92" t="s">
-        <v>512</v>
-      </c>
-      <c r="C92" t="s">
-        <v>513</v>
-      </c>
-      <c r="D92" t="s">
-        <v>497</v>
-      </c>
-      <c r="E92" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" t="s">
-        <v>514</v>
-      </c>
-      <c r="G92" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" t="s">
-        <v>515</v>
-      </c>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>516</v>
-      </c>
-      <c r="B93" t="s">
-        <v>517</v>
-      </c>
-      <c r="C93" t="s">
-        <v>518</v>
-      </c>
-      <c r="D93" t="s">
-        <v>497</v>
-      </c>
-      <c r="E93" t="s">
-        <v>519</v>
-      </c>
-      <c r="F93" t="s">
-        <v>520</v>
-      </c>
-      <c r="G93" t="s">
-        <v>521</v>
-      </c>
-      <c r="H93" t="s">
-        <v>522</v>
-      </c>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>523</v>
-      </c>
-      <c r="B94" t="s">
-        <v>524</v>
-      </c>
-      <c r="C94" t="s">
-        <v>525</v>
-      </c>
-      <c r="D94" t="s">
-        <v>497</v>
-      </c>
-      <c r="E94" t="s">
-        <v>203</v>
-      </c>
-      <c r="F94" t="s">
-        <v>526</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>527</v>
-      </c>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>528</v>
-      </c>
-      <c r="B95" t="s">
-        <v>529</v>
-      </c>
-      <c r="C95" t="s">
-        <v>530</v>
-      </c>
-      <c r="D95" t="s">
-        <v>497</v>
-      </c>
-      <c r="E95" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" t="s">
-        <v>531</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>532</v>
-      </c>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>533</v>
-      </c>
-      <c r="B96" t="s">
-        <v>534</v>
-      </c>
-      <c r="C96" t="s">
-        <v>535</v>
-      </c>
-      <c r="D96" t="s">
-        <v>497</v>
-      </c>
-      <c r="E96" t="s">
-        <v>536</v>
-      </c>
-      <c r="F96" t="s">
-        <v>537</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>538</v>
-      </c>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>539</v>
-      </c>
-      <c r="B97" t="s">
-        <v>540</v>
-      </c>
-      <c r="C97" t="s">
-        <v>541</v>
-      </c>
-      <c r="D97" t="s">
-        <v>497</v>
-      </c>
-      <c r="E97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F97" t="s">
-        <v>542</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>543</v>
-      </c>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
-        <v>544</v>
-      </c>
-      <c r="B98" t="s">
-        <v>545</v>
-      </c>
-      <c r="C98" t="s">
-        <v>546</v>
-      </c>
-      <c r="D98" t="s">
-        <v>497</v>
-      </c>
-      <c r="E98" t="s">
-        <v>547</v>
-      </c>
-      <c r="F98" t="s">
-        <v>548</v>
-      </c>
-      <c r="G98" t="s">
-        <v>549</v>
-      </c>
-      <c r="H98" t="s">
-        <v>77</v>
-      </c>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>550</v>
-      </c>
-      <c r="B99" t="s">
-        <v>551</v>
-      </c>
-      <c r="C99" t="s">
-        <v>552</v>
-      </c>
-      <c r="D99" t="s">
-        <v>497</v>
-      </c>
-      <c r="E99" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" t="s">
-        <v>553</v>
-      </c>
-      <c r="G99" t="s">
-        <v>98</v>
-      </c>
-      <c r="H99" t="s">
-        <v>554</v>
-      </c>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" t="s">
-        <v>555</v>
-      </c>
-      <c r="B100" t="s">
-        <v>556</v>
-      </c>
-      <c r="C100" t="s">
-        <v>557</v>
-      </c>
-      <c r="D100" t="s">
-        <v>558</v>
-      </c>
-      <c r="E100" t="s">
-        <v>236</v>
-      </c>
-      <c r="F100" t="s">
-        <v>559</v>
-      </c>
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s">
-        <v>300</v>
-      </c>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>560</v>
-      </c>
-      <c r="B101" t="s">
-        <v>561</v>
-      </c>
-      <c r="C101" t="s">
-        <v>562</v>
-      </c>
-      <c r="D101" t="s">
-        <v>558</v>
-      </c>
-      <c r="E101" t="s">
-        <v>170</v>
-      </c>
-      <c r="F101" t="s">
-        <v>563</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s">
-        <v>564</v>
-      </c>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>565</v>
-      </c>
-      <c r="B102" t="s">
-        <v>566</v>
-      </c>
-      <c r="C102" t="s">
-        <v>567</v>
-      </c>
-      <c r="D102" t="s">
-        <v>558</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>568</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s">
-        <v>217</v>
-      </c>
-      <c r="I102"/>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>569</v>
-      </c>
-      <c r="B103" t="s">
-        <v>570</v>
-      </c>
-      <c r="C103">
-        <v>81662081500</v>
-      </c>
-      <c r="D103" t="s">
-        <v>558</v>
-      </c>
-      <c r="E103" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" t="s">
-        <v>571</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>572</v>
-      </c>
-      <c r="I103"/>
-      <c r="J103"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>573</v>
-      </c>
-      <c r="B104" t="s">
-        <v>574</v>
-      </c>
-      <c r="C104" t="s">
-        <v>575</v>
-      </c>
-      <c r="D104" t="s">
-        <v>558</v>
-      </c>
-      <c r="E104" t="s">
-        <v>236</v>
-      </c>
-      <c r="F104" t="s">
-        <v>576</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s">
-        <v>577</v>
-      </c>
-      <c r="I104"/>
-      <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" t="s">
-        <v>578</v>
-      </c>
-      <c r="B105" t="s">
-        <v>579</v>
-      </c>
-      <c r="C105" t="s">
-        <v>580</v>
-      </c>
-      <c r="D105" t="s">
-        <v>581</v>
-      </c>
-      <c r="E105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" t="s">
-        <v>582</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" t="s">
-        <v>583</v>
-      </c>
-      <c r="I105"/>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>584</v>
-      </c>
-      <c r="B106" t="s">
-        <v>585</v>
-      </c>
-      <c r="C106" t="s">
-        <v>586</v>
-      </c>
-      <c r="D106" t="s">
-        <v>581</v>
-      </c>
-      <c r="E106" t="s">
-        <v>236</v>
-      </c>
-      <c r="F106" t="s">
-        <v>587</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" t="s">
-        <v>282</v>
-      </c>
-      <c r="I106"/>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" t="s">
-        <v>588</v>
-      </c>
-      <c r="B107" t="s">
-        <v>589</v>
-      </c>
-      <c r="C107" t="s">
-        <v>590</v>
-      </c>
-      <c r="D107" t="s">
-        <v>591</v>
-      </c>
-      <c r="E107" t="s">
-        <v>592</v>
-      </c>
-      <c r="F107" t="s">
-        <v>593</v>
-      </c>
-      <c r="G107" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" t="s">
-        <v>594</v>
-      </c>
-      <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>595</v>
-      </c>
-      <c r="B108" t="s">
-        <v>596</v>
-      </c>
-      <c r="C108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D108" t="s">
-        <v>591</v>
-      </c>
-      <c r="E108" t="s">
-        <v>597</v>
-      </c>
-      <c r="F108" t="s">
-        <v>598</v>
-      </c>
-      <c r="G108" t="s">
-        <v>599</v>
-      </c>
-      <c r="H108" t="s">
-        <v>254</v>
-      </c>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>600</v>
-      </c>
-      <c r="B109" t="s">
-        <v>601</v>
-      </c>
-      <c r="C109" t="s">
-        <v>602</v>
-      </c>
-      <c r="D109" t="s">
-        <v>591</v>
-      </c>
-      <c r="E109" t="s">
-        <v>381</v>
-      </c>
-      <c r="F109" t="s">
-        <v>603</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s">
-        <v>594</v>
-      </c>
-      <c r="I109"/>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>604</v>
-      </c>
-      <c r="B110" t="s">
-        <v>605</v>
-      </c>
-      <c r="C110" t="s">
-        <v>606</v>
-      </c>
-      <c r="D110" t="s">
-        <v>607</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" t="s">
-        <v>608</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>172</v>
-      </c>
-      <c r="I110"/>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>609</v>
-      </c>
-      <c r="B111" t="s">
-        <v>610</v>
-      </c>
-      <c r="C111" t="s">
-        <v>611</v>
-      </c>
-      <c r="D111" t="s">
-        <v>607</v>
-      </c>
-      <c r="E111" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" t="s">
-        <v>612</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>613</v>
-      </c>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>614</v>
-      </c>
-      <c r="B112" t="s">
-        <v>615</v>
-      </c>
-      <c r="C112" t="s">
-        <v>616</v>
-      </c>
-      <c r="D112" t="s">
-        <v>607</v>
-      </c>
-      <c r="E112" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" t="s">
-        <v>617</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>618</v>
-      </c>
-      <c r="I112"/>
-      <c r="J112"/>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
-        <v>619</v>
-      </c>
-      <c r="B113" t="s">
-        <v>620</v>
-      </c>
-      <c r="C113" t="s">
-        <v>621</v>
-      </c>
-      <c r="D113" t="s">
-        <v>607</v>
-      </c>
-      <c r="E113" t="s">
-        <v>622</v>
-      </c>
-      <c r="F113" t="s">
-        <v>623</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s">
-        <v>624</v>
-      </c>
-      <c r="I113"/>
-      <c r="J113"/>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" t="s">
-        <v>625</v>
-      </c>
-      <c r="B114" t="s">
-        <v>626</v>
-      </c>
-      <c r="C114" t="s">
-        <v>627</v>
-      </c>
-      <c r="D114" t="s">
-        <v>607</v>
-      </c>
-      <c r="E114" t="s">
-        <v>628</v>
-      </c>
-      <c r="F114" t="s">
-        <v>629</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="s">
-        <v>630</v>
-      </c>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" t="s">
-        <v>632</v>
-      </c>
-      <c r="C115" t="s">
-        <v>633</v>
-      </c>
-      <c r="D115" t="s">
-        <v>607</v>
-      </c>
-      <c r="E115" t="s">
-        <v>197</v>
-      </c>
-      <c r="F115" t="s">
-        <v>634</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>635</v>
-      </c>
-      <c r="I115"/>
-      <c r="J115"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" t="s">
-        <v>636</v>
-      </c>
-      <c r="B116" t="s">
-        <v>637</v>
-      </c>
-      <c r="C116" t="s">
-        <v>638</v>
-      </c>
-      <c r="D116" t="s">
-        <v>607</v>
-      </c>
-      <c r="E116" t="s">
-        <v>639</v>
-      </c>
-      <c r="F116" t="s">
-        <v>640</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>641</v>
-      </c>
-      <c r="I116"/>
-      <c r="J116"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" t="s">
-        <v>642</v>
-      </c>
-      <c r="B117" t="s">
-        <v>643</v>
-      </c>
-      <c r="C117" t="s">
-        <v>644</v>
-      </c>
-      <c r="D117" t="s">
-        <v>645</v>
-      </c>
-      <c r="E117" t="s">
-        <v>197</v>
-      </c>
-      <c r="F117" t="s">
-        <v>646</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>647</v>
-      </c>
-      <c r="I117"/>
-      <c r="J117"/>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" t="s">
-        <v>648</v>
-      </c>
-      <c r="B118" t="s">
-        <v>649</v>
-      </c>
-      <c r="C118" t="s">
-        <v>650</v>
-      </c>
-      <c r="D118" t="s">
-        <v>645</v>
-      </c>
-      <c r="E118" t="s">
-        <v>55</v>
-      </c>
-      <c r="F118" t="s">
-        <v>651</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s">
-        <v>652</v>
-      </c>
-      <c r="I118"/>
-      <c r="J118"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" t="s">
-        <v>653</v>
-      </c>
-      <c r="B119" t="s">
-        <v>654</v>
-      </c>
-      <c r="C119" t="s">
-        <v>655</v>
-      </c>
-      <c r="D119" t="s">
-        <v>645</v>
-      </c>
-      <c r="E119" t="s">
-        <v>656</v>
-      </c>
-      <c r="F119" t="s">
-        <v>657</v>
-      </c>
-      <c r="G119" t="s">
-        <v>521</v>
-      </c>
-      <c r="H119" t="s">
-        <v>658</v>
-      </c>
-      <c r="I119"/>
-      <c r="J119"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" t="s">
-        <v>659</v>
-      </c>
-      <c r="B120" t="s">
-        <v>660</v>
-      </c>
-      <c r="C120" t="s">
-        <v>661</v>
-      </c>
-      <c r="D120" t="s">
-        <v>645</v>
-      </c>
-      <c r="E120" t="s">
-        <v>662</v>
-      </c>
-      <c r="F120" t="s">
-        <v>663</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s">
-        <v>664</v>
-      </c>
-      <c r="I120"/>
-      <c r="J120"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" t="s">
-        <v>665</v>
-      </c>
-      <c r="B121" t="s">
-        <v>666</v>
-      </c>
-      <c r="C121" t="s">
-        <v>667</v>
-      </c>
-      <c r="D121" t="s">
-        <v>645</v>
-      </c>
-      <c r="E121" t="s">
-        <v>298</v>
-      </c>
-      <c r="F121" t="s">
-        <v>668</v>
-      </c>
-      <c r="G121" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" t="s">
-        <v>669</v>
-      </c>
-      <c r="I121"/>
-      <c r="J121"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" t="s">
-        <v>670</v>
-      </c>
-      <c r="B122" t="s">
-        <v>671</v>
-      </c>
-      <c r="C122" t="s">
-        <v>672</v>
-      </c>
-      <c r="D122" t="s">
-        <v>673</v>
-      </c>
-      <c r="E122" t="s">
-        <v>354</v>
-      </c>
-      <c r="F122" t="s">
-        <v>674</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>675</v>
-      </c>
-      <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" t="s">
-        <v>676</v>
-      </c>
-      <c r="B123" t="s">
-        <v>677</v>
-      </c>
-      <c r="C123" t="s">
-        <v>678</v>
-      </c>
-      <c r="D123" t="s">
-        <v>673</v>
-      </c>
-      <c r="E123" t="s">
-        <v>679</v>
-      </c>
-      <c r="F123" t="s">
-        <v>680</v>
-      </c>
-      <c r="G123" t="s">
-        <v>91</v>
-      </c>
-      <c r="H123" t="s">
-        <v>681</v>
-      </c>
-      <c r="I123"/>
-      <c r="J123"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" t="s">
-        <v>682</v>
-      </c>
-      <c r="B124" t="s">
-        <v>683</v>
-      </c>
-      <c r="C124" t="s">
-        <v>684</v>
-      </c>
-      <c r="D124" t="s">
-        <v>673</v>
-      </c>
-      <c r="E124" t="s">
-        <v>170</v>
-      </c>
-      <c r="F124" t="s">
-        <v>685</v>
-      </c>
-      <c r="G124" t="s">
-        <v>686</v>
-      </c>
-      <c r="H124" t="s">
-        <v>687</v>
-      </c>
-      <c r="I124"/>
-      <c r="J124"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>688</v>
-      </c>
-      <c r="B125" t="s">
-        <v>689</v>
-      </c>
-      <c r="C125" t="s">
-        <v>690</v>
-      </c>
-      <c r="D125" t="s">
-        <v>691</v>
-      </c>
-      <c r="E125" t="s">
-        <v>354</v>
-      </c>
-      <c r="F125" t="s">
-        <v>692</v>
-      </c>
-      <c r="G125" t="s">
-        <v>292</v>
-      </c>
-      <c r="H125" t="s">
-        <v>693</v>
-      </c>
-      <c r="I125"/>
-      <c r="J125"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>694</v>
-      </c>
-      <c r="B126" t="s">
-        <v>695</v>
-      </c>
-      <c r="C126" t="s">
-        <v>696</v>
-      </c>
-      <c r="D126" t="s">
-        <v>691</v>
-      </c>
-      <c r="E126" t="s">
-        <v>236</v>
-      </c>
-      <c r="F126" t="s">
-        <v>697</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>698</v>
-      </c>
-      <c r="I126"/>
-      <c r="J126"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>699</v>
-      </c>
-      <c r="B127" t="s">
-        <v>700</v>
-      </c>
-      <c r="C127" t="s">
-        <v>701</v>
-      </c>
-      <c r="D127" t="s">
-        <v>702</v>
-      </c>
-      <c r="E127" t="s">
-        <v>314</v>
-      </c>
-      <c r="F127" t="s">
-        <v>703</v>
-      </c>
-      <c r="G127" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" t="s">
-        <v>704</v>
-      </c>
-      <c r="I127"/>
-      <c r="J127"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" t="s">
-        <v>705</v>
-      </c>
-      <c r="B128" t="s">
-        <v>706</v>
-      </c>
-      <c r="C128" t="s">
-        <v>707</v>
-      </c>
-      <c r="D128" t="s">
-        <v>708</v>
-      </c>
-      <c r="E128" t="s">
-        <v>536</v>
-      </c>
-      <c r="F128" t="s">
-        <v>709</v>
-      </c>
-      <c r="G128" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" t="s">
-        <v>710</v>
-      </c>
-      <c r="I128"/>
-      <c r="J128"/>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" t="s">
-        <v>711</v>
-      </c>
-      <c r="B129" t="s">
-        <v>712</v>
-      </c>
-      <c r="C129" t="s">
-        <v>713</v>
-      </c>
-      <c r="D129" t="s">
-        <v>708</v>
-      </c>
-      <c r="E129" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" t="s">
-        <v>714</v>
-      </c>
-      <c r="G129" t="s">
-        <v>549</v>
-      </c>
-      <c r="H129" t="s">
-        <v>715</v>
-      </c>
-      <c r="I129"/>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" t="s">
-        <v>716</v>
-      </c>
-      <c r="B130" t="s">
-        <v>717</v>
-      </c>
-      <c r="C130" t="s">
-        <v>718</v>
-      </c>
-      <c r="D130" t="s">
-        <v>719</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s">
-        <v>720</v>
-      </c>
-      <c r="G130" t="s">
-        <v>131</v>
-      </c>
-      <c r="H130" t="s">
-        <v>721</v>
-      </c>
-      <c r="I130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" t="s">
-        <v>722</v>
-      </c>
-      <c r="B131" t="s">
-        <v>723</v>
-      </c>
-      <c r="C131" t="s">
-        <v>724</v>
-      </c>
-      <c r="D131" t="s">
-        <v>725</v>
-      </c>
-      <c r="E131" t="s">
-        <v>242</v>
-      </c>
-      <c r="F131" t="s">
-        <v>726</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>727</v>
-      </c>
-      <c r="I131"/>
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" t="s">
-        <v>728</v>
-      </c>
-      <c r="B132" t="s">
-        <v>729</v>
-      </c>
-      <c r="C132" t="s">
-        <v>730</v>
-      </c>
-      <c r="D132" t="s">
-        <v>725</v>
-      </c>
-      <c r="E132" t="s">
-        <v>731</v>
-      </c>
-      <c r="F132" t="s">
-        <v>732</v>
-      </c>
-      <c r="G132" t="s">
-        <v>275</v>
-      </c>
-      <c r="H132" t="s">
-        <v>733</v>
-      </c>
-      <c r="I132"/>
-      <c r="J132"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" t="s">
-        <v>734</v>
-      </c>
-      <c r="B133" t="s">
-        <v>735</v>
-      </c>
-      <c r="C133" t="s">
-        <v>736</v>
-      </c>
-      <c r="D133" t="s">
-        <v>725</v>
-      </c>
-      <c r="E133" t="s">
-        <v>737</v>
-      </c>
-      <c r="F133" t="s">
-        <v>738</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s">
-        <v>739</v>
-      </c>
-      <c r="I133"/>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" t="s">
-        <v>740</v>
-      </c>
-      <c r="B134" t="s">
-        <v>741</v>
-      </c>
-      <c r="C134" t="s">
-        <v>742</v>
-      </c>
-      <c r="D134" t="s">
-        <v>725</v>
-      </c>
-      <c r="E134" t="s">
-        <v>230</v>
-      </c>
-      <c r="F134" t="s">
-        <v>743</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s">
-        <v>744</v>
-      </c>
-      <c r="I134"/>
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" t="s">
-        <v>745</v>
-      </c>
-      <c r="B135" t="s">
-        <v>746</v>
-      </c>
-      <c r="C135" t="s">
-        <v>747</v>
-      </c>
-      <c r="D135" t="s">
-        <v>748</v>
-      </c>
-      <c r="E135" t="s">
-        <v>749</v>
-      </c>
-      <c r="F135" t="s">
-        <v>750</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>751</v>
-      </c>
-      <c r="I135"/>
-      <c r="J135"/>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" t="s">
-        <v>752</v>
-      </c>
-      <c r="B136" t="s">
-        <v>753</v>
-      </c>
-      <c r="C136" t="s">
-        <v>754</v>
-      </c>
-      <c r="D136" t="s">
-        <v>755</v>
-      </c>
-      <c r="E136" t="s">
-        <v>756</v>
-      </c>
-      <c r="F136" t="s">
-        <v>757</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>758</v>
-      </c>
-      <c r="I136"/>
-      <c r="J136"/>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" t="s">
-        <v>759</v>
-      </c>
-      <c r="B137" t="s">
-        <v>760</v>
-      </c>
-      <c r="C137" t="s">
-        <v>761</v>
-      </c>
-      <c r="D137" t="s">
-        <v>762</v>
-      </c>
-      <c r="E137" t="s">
-        <v>203</v>
-      </c>
-      <c r="F137" t="s">
-        <v>763</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="s">
-        <v>764</v>
-      </c>
-      <c r="I137"/>
-      <c r="J137"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" t="s">
-        <v>765</v>
-      </c>
-      <c r="B138" t="s">
-        <v>766</v>
-      </c>
-      <c r="C138" t="s">
-        <v>767</v>
-      </c>
-      <c r="D138" t="s">
-        <v>762</v>
-      </c>
-      <c r="E138" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" t="s">
-        <v>768</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s">
-        <v>371</v>
-      </c>
-      <c r="I138"/>
-      <c r="J138"/>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" t="s">
-        <v>769</v>
-      </c>
-      <c r="B139" t="s">
-        <v>770</v>
-      </c>
-      <c r="C139" t="s">
-        <v>771</v>
-      </c>
-      <c r="D139" t="s">
-        <v>762</v>
-      </c>
-      <c r="E139" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" t="s">
-        <v>772</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
-        <v>773</v>
-      </c>
-      <c r="I139"/>
-      <c r="J139"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" t="s">
-        <v>774</v>
-      </c>
-      <c r="B140" t="s">
-        <v>775</v>
-      </c>
-      <c r="C140" t="s">
-        <v>776</v>
-      </c>
-      <c r="D140" t="s">
-        <v>762</v>
-      </c>
-      <c r="E140" t="s">
-        <v>55</v>
-      </c>
-      <c r="F140" t="s">
-        <v>777</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>778</v>
-      </c>
-      <c r="I140"/>
-      <c r="J140"/>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" t="s">
-        <v>779</v>
-      </c>
-      <c r="B141" t="s">
-        <v>780</v>
-      </c>
-      <c r="C141" t="s">
-        <v>781</v>
-      </c>
-      <c r="D141" t="s">
-        <v>762</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" t="s">
-        <v>782</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" t="s">
-        <v>783</v>
-      </c>
-      <c r="I141"/>
-      <c r="J141"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" t="s">
-        <v>784</v>
-      </c>
-      <c r="B142" t="s">
-        <v>785</v>
-      </c>
-      <c r="C142" t="s">
-        <v>786</v>
-      </c>
-      <c r="D142" t="s">
-        <v>762</v>
-      </c>
-      <c r="E142" t="s">
-        <v>170</v>
-      </c>
-      <c r="F142" t="s">
-        <v>787</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>788</v>
-      </c>
-      <c r="I142"/>
-      <c r="J142"/>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" t="s">
-        <v>789</v>
-      </c>
-      <c r="B143" t="s">
-        <v>790</v>
-      </c>
-      <c r="C143" t="s">
-        <v>791</v>
-      </c>
-      <c r="D143" t="s">
-        <v>762</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" t="s">
-        <v>792</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="H143" t="s" s="1">
         <v>793</v>
       </c>
-      <c r="I143"/>
-      <c r="J143"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
@@ -9261,32 +8981,6 @@
         <v>807</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>814</v>
@@ -9339,32 +9033,6 @@
         <v>822</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
         <v>828</v>
@@ -9469,32 +9137,6 @@
         <v>848</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
         <v>854</v>
@@ -9989,32 +9631,6 @@
         <v>946</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>951</v>
@@ -10353,32 +9969,6 @@
         <v>999</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>1020</v>
@@ -10587,32 +10177,6 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
         <v>1064</v>
@@ -10795,32 +10359,6 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
     <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>1103</v>
@@ -11052,32 +10590,6 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
     <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
         <v>1154</v>
@@ -11338,58 +10850,6 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
     <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
         <v>1216</v>
@@ -11468,32 +10928,6 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
     <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
         <v>1237</v>
@@ -11520,32 +10954,6 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
     <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
         <v>1242</v>
@@ -11572,32 +10980,6 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
     <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
         <v>1251</v>
@@ -11676,32 +11058,6 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
     <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
         <v>1274</v>
@@ -11934,32 +11290,6 @@
       </c>
       <c r="H249" s="1" t="s">
         <v>1310</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="251" spans="1:8">
